--- a/PFOax_GRAV.xlsx
+++ b/PFOax_GRAV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POTENCIALES\Documents\PRACTICAS\Practicas Profesionales\PF Pochutla, Oax\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japha\OneDrive\Documentos\GitHub\GravPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25B7040-5AA7-48EE-B228-DA6861F03566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167BCCE4-D896-4E5A-B9A5-BD32C240DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E5AFB7BF-6531-4614-8367-B93BF7DCFC20}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,10 +655,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -984,6 +982,7 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1043,16 +1042,16 @@
       <c r="C2" s="24">
         <v>1779338.7180000001</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="40">
         <v>16.079122900000002</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="40">
         <v>-96.473552499999997</v>
       </c>
       <c r="F2" s="24">
         <v>2208.85</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="41">
         <v>2207.9119999999998</v>
       </c>
       <c r="H2" s="1"/>
@@ -1322,13 +1321,13 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="42">
         <v>767472</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="42">
         <v>1767496.3333333333</v>
       </c>
       <c r="D13" s="28">
@@ -1347,13 +1346,13 @@
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="42">
         <v>768536.33333333337</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="42">
         <v>1768030</v>
       </c>
       <c r="D14" s="28">
@@ -1368,7 +1367,6 @@
       <c r="G14" s="29">
         <v>1297.3333333333333</v>
       </c>
-      <c r="H14" s="40"/>
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2149,7 +2147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BD539-7DB9-4857-B28E-A640309A95AF}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/PFOax_GRAV.xlsx
+++ b/PFOax_GRAV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japha\OneDrive\Documentos\GitHub\GravPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167BCCE4-D896-4E5A-B9A5-BD32C240DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD6D18-6827-4598-8B55-4E4DEB4C72B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E5AFB7BF-6531-4614-8367-B93BF7DCFC20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{E5AFB7BF-6531-4614-8367-B93BF7DCFC20}"/>
   </bookViews>
   <sheets>
     <sheet name="GPS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="73">
   <si>
     <t>MSNM</t>
   </si>
@@ -256,16 +256,20 @@
   <si>
     <t>G112</t>
   </si>
+  <si>
+    <t>BASE2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -612,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,6 +662,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94FBFD0-2CCC-46BE-B94F-F12BD74B69F2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2145,13 +2150,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BD539-7DB9-4857-B28E-A640309A95AF}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -2192,7 +2199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -2232,8 +2239,9 @@
       <c r="M2" s="8">
         <v>42382</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="43"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -2273,8 +2281,9 @@
       <c r="M3" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="43"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>57</v>
       </c>
@@ -2314,8 +2323,9 @@
       <c r="M4" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="43"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>57</v>
       </c>
@@ -2355,8 +2365,9 @@
       <c r="M5" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>57</v>
       </c>
@@ -2396,8 +2407,9 @@
       <c r="M6" s="16">
         <v>42382</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -2437,8 +2449,9 @@
       <c r="M7" s="8">
         <v>42382</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
@@ -2478,8 +2491,9 @@
       <c r="M8" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="43"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
@@ -2519,8 +2533,9 @@
       <c r="M9" s="16">
         <v>42382</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="43"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -2560,8 +2575,9 @@
       <c r="M10" s="8">
         <v>42382</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="43"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -2601,8 +2617,9 @@
       <c r="M11" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="43"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -2642,8 +2659,9 @@
       <c r="M12" s="16">
         <v>42382</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="43"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -2683,8 +2701,9 @@
       <c r="M13" s="8">
         <v>42382</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="43"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
@@ -2724,8 +2743,9 @@
       <c r="M14" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="43"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2785,9 @@
       <c r="M15" s="16">
         <v>42382</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="43"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -2806,8 +2827,9 @@
       <c r="M16" s="8">
         <v>42382</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="43"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -2847,8 +2869,9 @@
       <c r="M17" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="43"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2888,8 +2911,9 @@
       <c r="M18" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="43"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2929,8 +2953,9 @@
       <c r="M19" s="8">
         <v>42382</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="43"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
@@ -2970,8 +2995,9 @@
       <c r="M20" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="43"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
@@ -3011,8 +3037,9 @@
       <c r="M21" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="43"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -3052,8 +3079,9 @@
       <c r="M22" s="8">
         <v>42382</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="43"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>6</v>
       </c>
@@ -3093,8 +3121,9 @@
       <c r="M23" s="12">
         <v>42382</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="43"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
@@ -3134,8 +3163,9 @@
       <c r="M24" s="16">
         <v>42382</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="43"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
@@ -3175,8 +3205,9 @@
       <c r="M25" s="8">
         <v>42383</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="43"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -3216,8 +3247,9 @@
       <c r="M26" s="12">
         <v>42383</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="43"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
@@ -3257,10 +3289,11 @@
       <c r="M27" s="16">
         <v>42383</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="43"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B28" s="24">
         <v>3017.933</v>
@@ -3298,10 +3331,11 @@
       <c r="M28" s="8">
         <v>42383</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="43"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B29" s="25">
         <v>3017.9350000000004</v>
@@ -3339,10 +3373,11 @@
       <c r="M29" s="12">
         <v>42383</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="43"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B30" s="26">
         <v>3017.9350000000004</v>
@@ -3380,9 +3415,11 @@
       <c r="M30" s="16">
         <v>42383</v>
       </c>
+      <c r="N30" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
